--- a/general_practice.xlsx
+++ b/general_practice.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajnish/Projects/Data Engineering/leetcode_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1165F9-2EC9-9F4F-A7B4-915FEFC4B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E01F447-9C83-ED49-93CC-B99E97124AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="1" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="3" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
     <sheet name="employees" sheetId="3" r:id="rId2"/>
     <sheet name="students" sheetId="4" r:id="rId3"/>
+    <sheet name="customers" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>player_id</t>
   </si>
@@ -188,6 +189,36 @@
   </si>
   <si>
     <t>Henry</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>emily@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>michael@example.com</t>
+  </si>
+  <si>
+    <t>sarah@example.com</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
   </si>
 </sst>
 </file>
@@ -784,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D16E16C-FE89-BE4D-85BD-18DD0A46E8E6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -961,4 +992,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240844B-F18C-774F-BCCA-CC29CEF2097D}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/general_practice.xlsx
+++ b/general_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajnish/Projects/Data Engineering/leetcode_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E01F447-9C83-ED49-93CC-B99E97124AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B51EB-FA67-7947-8134-0CDBAC5A0AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="3" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="2" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>player_id</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>Piper</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Willow</t>
   </si>
 </sst>
 </file>
@@ -926,10 +938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75880DE-83D3-4D43-A42E-29D383A32FAD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +999,50 @@
       </c>
       <c r="C5">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>779</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>849</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240844B-F18C-774F-BCCA-CC29CEF2097D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/general_practice.xlsx
+++ b/general_practice.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajnish/Projects/Data Engineering/leetcode_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B51EB-FA67-7947-8134-0CDBAC5A0AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E9DE4-784A-5C4F-9495-F1597407FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="2" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="3" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
     <sheet name="employees" sheetId="3" r:id="rId2"/>
     <sheet name="students" sheetId="4" r:id="rId3"/>
-    <sheet name="customers" sheetId="5" r:id="rId4"/>
+    <sheet name="products" sheetId="7" r:id="rId4"/>
+    <sheet name="new_students" sheetId="6" r:id="rId5"/>
+    <sheet name="customers" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>player_id</t>
   </si>
@@ -231,12 +233,63 @@
   </si>
   <si>
     <t>Willow</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>grades</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Wristwatch</t>
+  </si>
+  <si>
+    <t>WirelessEarbuds</t>
+  </si>
+  <si>
+    <t>GolfClubs</t>
+  </si>
+  <si>
+    <t>Printer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -273,9 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,15 +992,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75880DE-83D3-4D43-A42E-29D383A32FAD}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -956,8 +1013,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -967,8 +1027,11 @@
       <c r="C2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>53</v>
       </c>
@@ -978,8 +1041,11 @@
       <c r="C3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>128</v>
       </c>
@@ -989,8 +1055,11 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1000,8 +1069,11 @@
       <c r="C5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>32</v>
       </c>
@@ -1011,8 +1083,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>217</v>
       </c>
@@ -1022,8 +1097,11 @@
       <c r="C7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>779</v>
       </c>
@@ -1033,8 +1111,11 @@
       <c r="C8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>849</v>
       </c>
@@ -1043,6 +1124,9 @@
       </c>
       <c r="C9">
         <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1051,11 +1135,179 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44E3304-08D8-7D48-ABAA-0181BD1EE889}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>779</v>
+      </c>
+      <c r="C4">
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>849</v>
+      </c>
+      <c r="C5">
+        <v>3051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D2C36D-77D7-904C-8730-C6C13222D3D3}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240844B-F18C-774F-BCCA-CC29CEF2097D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/general_practice.xlsx
+++ b/general_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajnish/Projects/Data Engineering/leetcode_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E9DE4-784A-5C4F-9495-F1597407FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA60AF9-2D5A-2349-9100-E0DD2D0A2CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="3" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="7" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="students" sheetId="4" r:id="rId3"/>
     <sheet name="products" sheetId="7" r:id="rId4"/>
     <sheet name="new_students" sheetId="6" r:id="rId5"/>
-    <sheet name="customers" sheetId="5" r:id="rId6"/>
+    <sheet name="weather" sheetId="8" r:id="rId6"/>
+    <sheet name="report" sheetId="9" r:id="rId7"/>
+    <sheet name="animals" sheetId="10" r:id="rId8"/>
+    <sheet name="customers" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>player_id</t>
   </si>
@@ -281,6 +284,90 @@
   </si>
   <si>
     <t>Printer</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>ElPaso</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>quarter_1</t>
+  </si>
+  <si>
+    <t>quarter_2</t>
+  </si>
+  <si>
+    <t>quarter_3</t>
+  </si>
+  <si>
+    <t>quarter_4</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>SleepingBag</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Giraffe</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Panda</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44E3304-08D8-7D48-ABAA-0181BD1EE889}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1208,7 +1295,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,6 +1390,321 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D85A234-4894-F347-865A-64D67B8DED17}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE7427E-A757-1C4C-8E41-E4B76DD3FC7A}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>417</v>
+      </c>
+      <c r="C2">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>379</v>
+      </c>
+      <c r="E2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>936</v>
+      </c>
+      <c r="D3">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D4F09A-1D06-5045-BF1E-F7F29EE20F54}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240844B-F18C-774F-BCCA-CC29CEF2097D}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/general_practice.xlsx
+++ b/general_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajnish/Projects/Data Engineering/leetcode_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA60AF9-2D5A-2349-9100-E0DD2D0A2CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02750B2E-9D01-7243-AB13-6BE47CA5360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16140" activeTab="7" xr2:uid="{125E4D3A-6135-FF45-A452-AE7DCD245EBB}"/>
   </bookViews>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
